--- a/biology/Médecine/Hôpital_de_Hautepierre/Hôpital_de_Hautepierre.xlsx
+++ b/biology/Médecine/Hôpital_de_Hautepierre/Hôpital_de_Hautepierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Hautepierre</t>
+          <t>Hôpital_de_Hautepierre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’hôpital de Hautepierre est un centre hospitalier universitaire situé à Strasbourg, dans le quartier de Hautepierre. Il est rattaché aux Hôpitaux universitaires de Strasbourg. Ouvert en 1979, il compte 916 lits[1].
+L’hôpital de Hautepierre est un centre hospitalier universitaire situé à Strasbourg, dans le quartier de Hautepierre. Il est rattaché aux Hôpitaux universitaires de Strasbourg. Ouvert en 1979, il compte 916 lits.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Hautepierre</t>
+          <t>Hôpital_de_Hautepierre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Accessibilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est desservi par la ligne A du tramway de Strasbourg depuis 1994 et par la ligne D depuis 2013 via la station Hôpital de Hautepierre.
 L'hôpital s'est étendu avec l'arrivée du PMTL (Plateau Médico-Technique Locomoteur) et l'IRC (Institut Régional du Cancer) en septembre 2018 et 2019.
